--- a/biology/Zoologie/Itaballia/Itaballia.xlsx
+++ b/biology/Zoologie/Itaballia/Itaballia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Itaballia est un genre de lépidoptères (papillons) d e la sous-famille des Pierinae (famille des Pieridae).
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Itaballia se rencontrent en Amérique centrale et en Amérique du Sud.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa publication de 1904, William J. Kaye (d) (1875-1967) donne la description suivante de ce genre[1] : « Aile antérieure très fortement arquée de la base à la costa ; la pointe presque arrondie. Marge extérieure uniformément courbée en tornus qui est émoussé. Marge intérieure légèrement incurvée vers le milieu. Cellule discoïdale à peine plus longue que la moitié de la longueur de l'aile. Aile postérieure avec costa bien courbée, apex assez arrondi ; marge extérieure hardiment courbée. Cellule discoïde ne dépassant pas la moitié de la longueur de l'aile, la discocellulaire très légèrement oblique avec la nervure 4. Tête grande. Palpi très élancé et correct, la deuxième articulation peu recouverte de poils. Pattes très fines. Antennes avec une longue pointe progressivement épaissie ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa publication de 1904, William J. Kaye (d) (1875-1967) donne la description suivante de ce genre : « Aile antérieure très fortement arquée de la base à la costa ; la pointe presque arrondie. Marge extérieure uniformément courbée en tornus qui est émoussé. Marge intérieure légèrement incurvée vers le milieu. Cellule discoïdale à peine plus longue que la moitié de la longueur de l'aile. Aile postérieure avec costa bien courbée, apex assez arrondi ; marge extérieure hardiment courbée. Cellule discoïde ne dépassant pas la moitié de la longueur de l'aile, la discocellulaire très légèrement oblique avec la nervure 4. Tête grande. Palpi très élancé et correct, la deuxième articulation peu recouverte de poils. Pattes très fines. Antennes avec une longue pointe progressivement épaissie ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (30 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (30 avril 2024) :
 Itaballia demophile (Linnaeus, 1758)
 Itaballia demophile demophile - Guyane
 Itaballia demophile calydonia (Boisduval, 1836) - Colombie
@@ -587,9 +605,9 @@
 Itaballia demophile niphates Fruhstorfer, 1907 - Brésil
 Itaballia demophile niseias (Fruhstorfer, 1907) -  Paraguay
 Itaballia marana (Doubleday, 1844) - Équateur
-Itaballia pandosia (Hewitson, [1853])
+Itaballia pandosia (Hewitson, )
 Itaballia pandosia kicaha (Reakirt, 1863) - Costa Rica, Guatemala, Honduras et Panama
-Itaballia pandosia pandosia (Hewitson, [1853]) - Venezuela
+Itaballia pandosia pandosia (Hewitson, ) - Venezuela
 Itaballia pandosia pisonis (Hewitson, 1861) - Équateur, Brésil et Pérou
 Itaballia pandosia sabata (Fruhstorfer, 1907) - Colombie</t>
         </is>
@@ -619,11 +637,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Itaballia Kaye (d), 1904[3],[1]. Son espèce type est Itaballia pandosia[1].
-Publication originale
-(en) William James Kaye, « A Catalogue of the Lepidoptera Rhopalocera of Trinidad », Transactions of the Royal Entomological Society of London, Royal Entomological Society, vol. 52, no 2,‎ 1904, p. 159–230 (ISSN 0035-8894 et 2056-5259, OCLC 1125695995, DOI 10.1111/J.1365-2311.1904.TB02744.X, lire en ligne)</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Itaballia Kaye (d), 1904,. Son espèce type est Itaballia pandosia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Itaballia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Itaballia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) William James Kaye, « A Catalogue of the Lepidoptera Rhopalocera of Trinidad », Transactions of the Royal Entomological Society of London, Royal Entomological Society, vol. 52, no 2,‎ 1904, p. 159–230 (ISSN 0035-8894 et 2056-5259, OCLC 1125695995, DOI 10.1111/J.1365-2311.1904.TB02744.X, lire en ligne)</t>
         </is>
       </c>
     </row>
